--- a/java/JeecgBoot/minio对象存储.xlsx
+++ b/java/JeecgBoot/minio对象存储.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="了解" sheetId="1" r:id="rId1"/>
     <sheet name="Docker安装" sheetId="2" r:id="rId2"/>
     <sheet name="Linux安装" sheetId="3" r:id="rId3"/>
+    <sheet name="minio分布式集群" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>分布式文件存储系统Minio</t>
   </si>
@@ -61,6 +62,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">安装并运行 MinIO 服务器
 </t>
     </r>
@@ -85,7 +93,7 @@
     <t>http://127.0.0.1:9000</t>
   </si>
   <si>
-    <t>安装 MinIO 客户端</t>
+    <t>安装 MinIO 客户端（mc不用管也没啥）</t>
   </si>
   <si>
     <t>下载适用于 Windows 的独立 MinIO 服务器：</t>
@@ -111,7 +119,13 @@
 ./mc.exe admin info local</t>
   </si>
   <si>
+    <t>mc.exe报错，minio客服端不用管</t>
+  </si>
+  <si>
     <t>mc.exe: &lt;ERROR&gt; Unable to initialize new alias from the provided credentials. The Access Key Id you provided does not exist in our records.</t>
+  </si>
+  <si>
+    <t>方式一</t>
   </si>
   <si>
     <t>英文官方位置</t>
@@ -127,11 +141,47 @@
     <t>启动 MinIO 服务器</t>
   </si>
   <si>
-    <t>mkdir ~/minio
+    <t>mkdir ~/minio        看新建的目录cd ~
 minio server ~/minio --console-address :9090</t>
   </si>
   <si>
-    <t>浏览器连接到 MinIO 服务器</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">浏览器连接到 MinIO 服务器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">防火墙开启端口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认账号密码
+账号：minioadmin
+密码：minioadmin</t>
+    </r>
+  </si>
+  <si>
+    <t>http://39.108.174.145:9000</t>
   </si>
   <si>
     <t>下载mc客户端并将其安装到系统上的某个位置</t>
@@ -142,11 +192,80 @@
 sudo mv mc /usr/local/bin/mc</t>
   </si>
   <si>
-    <t>用于创建与本地部署关联的新别名</t>
-  </si>
-  <si>
-    <t>mc alias set local http://127.0.0.1:9000 minioadmin minioadmin
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用于创建与本地部署关联的新别名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须MinIO 服务器开启状态</t>
+    </r>
+  </si>
+  <si>
+    <t>mc alias set local http://39.108.174.145:9000 minioadmin minioadmin
 mc admin info local</t>
+  </si>
+  <si>
+    <t>方式二</t>
+  </si>
+  <si>
+    <t>英文官方位置
+选Docker(Rootfull) 》 Linux</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">安装并运行镜像（这方式关掉就卸载了）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已设置账号和密码</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run \
+   -p 9000:9000 \
+   -p 9090:9090 \
+   --name minio11 \
+   -v ~/minio/data:/data \
+   -e "MINIO_ROOT_USER=ROOTNAME" \
+   -e "MINIO_ROOT_PASSWORD=CHANGEME123" \
+   quay.io/minio/minio server /data --console-address ":9090"</t>
+  </si>
+  <si>
+    <t>浏览器访问</t>
+  </si>
+  <si>
+    <t>minio分布式集群的详细搭建</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/R1011/article/details/124399434</t>
   </si>
 </sst>
 </file>
@@ -319,12 +438,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -633,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,16 +770,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,10 +791,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,28 +815,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -720,19 +845,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,60 +866,66 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1279,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1161,24 +1289,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" ht="72" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1186,7 +1314,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1194,7 +1322,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1202,7 +1330,7 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1"/>
@@ -1226,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1237,7 +1365,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1251,12 +1379,12 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1264,10 +1392,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -1278,7 +1406,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1286,8 +1414,8 @@
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1295,13 +1423,16 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="2:2">
-      <c r="B10" s="2" t="s">
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" t="s">
         <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1323,85 +1454,163 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" ht="43.2" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="115.2" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://min.io/docs/minio/linux/index.html"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://127.0.0.1:9000" tooltip="http://127.0.0.1:9000"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://min.io/docs/minio/linux/index.html"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://39.108.174.145:9000" tooltip="http://39.108.174.145:9000"/>
+    <hyperlink ref="B16" r:id="rId2" display="http://39.108.174.145:9000" tooltip="http://39.108.174.145:9000"/>
+    <hyperlink ref="B14" r:id="rId3" display="https://min.io/docs/minio/container/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/R1011/article/details/124399434"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>